--- a/ôn cnpm.xlsx
+++ b/ôn cnpm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NMCNPM\NMCNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A28974-F251-458F-8A8E-93F67F7438F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB9877D-55C0-4C9D-B925-FA4E6B0422A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,14 +250,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,30 +478,30 @@
   </sheetPr>
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="177.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="153.5546875" customWidth="1"/>
     <col min="3" max="3" width="104.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="13.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="13.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="105.6">
       <c r="A3" s="1">
@@ -510,7 +510,7 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -521,7 +521,7 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="125.4" customHeight="1">
       <c r="A5" s="1">
@@ -530,7 +530,7 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -552,7 +552,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -561,7 +561,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -579,7 +579,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -597,7 +597,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -606,7 +606,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -615,7 +615,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -624,7 +624,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -653,56 +653,56 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
